--- a/src/testdata/employeeManagementDta.xlsx
+++ b/src/testdata/employeeManagementDta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="272">
   <si>
     <t>Description</t>
   </si>
@@ -1208,6 +1208,134 @@
   </si>
   <si>
     <t>Màn Edit</t>
+  </si>
+  <si>
+    <t>Verify the label Name Other Id
+1. Check the label Name
+Ex: The label name is Other Id</t>
+  </si>
+  <si>
+    <t>Other Id</t>
+  </si>
+  <si>
+    <t>Verify the label Name Driver's License Number
+1. Check the label Name
+Ex: The label name is Driver's License Number</t>
+  </si>
+  <si>
+    <t>Verify the label Name License Expiry Date
+1. Check the label Name
+Ex: The label name is License Expiry Date</t>
+  </si>
+  <si>
+    <t>Verify the label Name Nationality
+1. Check the label Name
+Ex: The label name is Nationality</t>
+  </si>
+  <si>
+    <t>Verify the label Name Marital Status
+1. Check the label Name
+Ex: The label name is Marital Status</t>
+  </si>
+  <si>
+    <t>Verify the label Name Date of Birth
+1. Check the label Name
+Ex: The label name is Date of Birth</t>
+  </si>
+  <si>
+    <t>Verify the label Name Gender
+1. Check the label Name
+Ex: The label name is Gender</t>
+  </si>
+  <si>
+    <t>Verify the label Name Select File*
+1. Check the label Name
+Ex: The label name is Select File*</t>
+  </si>
+  <si>
+    <t>Select File*</t>
+  </si>
+  <si>
+    <t>Verify the label Name Comment
+1. Check the label Name
+Ex: The label name is Comment</t>
+  </si>
+  <si>
+    <t>Verify the placeholder of the Combobox License Expiry Date
+1. Check the display of the placeholder.
+Expected result: The placeholder is "yyyy-mm-dd".</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Verify the placeholder of the Combobox Date of Birth
+1. Check the display of the placeholder.
+Expected result: The placeholder is "yyyy-mm-dd".</t>
+  </si>
+  <si>
+    <t>Verify the placeholder of the textarea comment
+1. Check the display of the placeholder.
+Expected result: The placeholder is "Type comment here".</t>
+  </si>
+  <si>
+    <t>Type comment here</t>
+  </si>
+  <si>
+    <t>Check the color of the error message for the textbox "First Name"
+1. Enter a valid string of exactly 31 characters into the textbox (e.g., repeat character a until length = 31).
+2. Check the color of the error message.
+Expected result: The color of the error message is red.</t>
+  </si>
+  <si>
+    <t>Màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "Other Id"
+1. Enter a valid string of exactly 31 characters into the textbox (e.g., repeat character A until length = 31).
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t>saddddddddddddddddddddddddddddddddddddddddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the color of the error message for the textbox "License Expiry Date"
+1. Enter a string consisting of alphabetic characters into the field.
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the color of the error message for the textarea Comment
+1. Enter a valid string of exactly 201 characters into the textbox (e.g., repeat character a until length = 201).
+2.Check the color of the error message.
+Expected result: The color of the error message is red.
+</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Validate Field</t>
+  </si>
+  <si>
+    <t>Check not display sucessfully message</t>
+  </si>
+  <si>
+    <t>Check DB</t>
+  </si>
+  <si>
+    <t>Verify input with Vietnamese characters with diacritics
+1.Enter Vietnamese characters with diacritics (e.g., "Nguyễn Thị Ánh") into the input field.
+2. Ensure all other fields are filled with valid data.
+Expected result:
+1. Action is performed successfully.
+2. The field's data is displayed normally without any font errors.</t>
+  </si>
+  <si>
+    <t>nguyễn thị</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +2067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2133,6 +2261,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2671,10 +2808,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -3859,7 +3996,7 @@
       <c r="J45" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K45" s="65" t="s">
+      <c r="K45" s="68" t="s">
         <v>154</v>
       </c>
       <c r="L45" s="11"/>
@@ -5812,6 +5949,1145 @@
       <c r="C147" s="36"/>
       <c r="D147" s="36"/>
       <c r="E147" s="36"/>
+    </row>
+    <row r="148" s="2" customFormat="1" ht="29" spans="1:5">
+      <c r="A148" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A149" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A150" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A151" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B151" s="11"/>
+      <c r="C151" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A152" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A153" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A154" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A155" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A156" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B156" s="11"/>
+      <c r="C156" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A157" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A158" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A159" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="1" ht="29" spans="1:5">
+      <c r="A160" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A161" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161" s="11"/>
+      <c r="C161" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A162" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A163" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A164" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B164" s="11"/>
+      <c r="C164" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A165" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" s="11"/>
+      <c r="C165" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A166" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="1" ht="29" spans="1:5">
+      <c r="A167" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B167" s="66"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A168" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C168" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D168" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1" ht="57" customHeight="1" spans="1:5">
+      <c r="A169" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B169" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C169" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D169" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" ht="57" customHeight="1" spans="1:5">
+      <c r="A170" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D170" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="1" ht="62" customHeight="1" spans="1:5">
+      <c r="A171" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C171" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D171" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="1" ht="56" customHeight="1" spans="1:5">
+      <c r="A172" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B172" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C172" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D172" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" s="2" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A173" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B173" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C173" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D173" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" s="2" customFormat="1" spans="1:5">
+      <c r="A174" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B174" s="66"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" s="2" customFormat="1" ht="58" spans="1:5">
+      <c r="A175" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B175" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C175" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D175" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" spans="1:5">
+      <c r="A176" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B176" s="67"/>
+      <c r="C176" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" s="67"/>
+      <c r="E176" s="11"/>
+    </row>
+    <row r="177" s="2" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A177" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B177" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D177" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" s="2" customFormat="1" spans="1:5">
+      <c r="A178" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B178" s="67"/>
+      <c r="C178" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D178" s="67"/>
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A179" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C179" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D179" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="1" spans="1:5">
+      <c r="A180" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B180" s="67"/>
+      <c r="C180" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D180" s="67"/>
+      <c r="E180" s="11"/>
+    </row>
+    <row r="181" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A181" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B181" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D181" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" s="2" customFormat="1" spans="1:5">
+      <c r="A182" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B182" s="67"/>
+      <c r="C182" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" s="67"/>
+      <c r="E182" s="11"/>
+    </row>
+    <row r="183" s="2" customFormat="1" ht="116" spans="1:5">
+      <c r="A183" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B183" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C183" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D183" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" s="2" customFormat="1" spans="1:5">
+      <c r="A184" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B184" s="67"/>
+      <c r="C184" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="67"/>
+      <c r="E184" s="11"/>
+    </row>
+    <row r="185" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A185" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B185" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C185" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D185" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" s="2" customFormat="1" spans="1:5">
+      <c r="A186" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186" s="67"/>
+      <c r="C186" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="67"/>
+      <c r="E186" s="11"/>
+    </row>
+    <row r="187" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A187" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B187" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C187" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D187" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188" s="2" customFormat="1" spans="1:5">
+      <c r="A188" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B188" s="67"/>
+      <c r="C188" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D188" s="67"/>
+      <c r="E188" s="11"/>
+    </row>
+    <row r="189" s="2" customFormat="1" ht="106" customHeight="1" spans="1:5">
+      <c r="A189" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B189" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C189" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D189" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" s="2" customFormat="1" spans="1:5">
+      <c r="A190" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B190" s="67"/>
+      <c r="C190" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D190" s="67"/>
+      <c r="E190" s="11"/>
+    </row>
+    <row r="191" s="2" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A191" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B191" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C191" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D191" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" s="2" customFormat="1" spans="1:5">
+      <c r="A192" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B192" s="67"/>
+      <c r="C192" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D192" s="67"/>
+      <c r="E192" s="11"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B193" s="66"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="66"/>
+      <c r="E193" s="9"/>
+    </row>
+    <row r="194" ht="101.5" spans="1:5">
+      <c r="A194" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B194" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C194" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D194" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B195" s="67"/>
+      <c r="C195" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D195" s="67"/>
+      <c r="E195" s="11"/>
+    </row>
+    <row r="196" ht="87" spans="1:5">
+      <c r="A196" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B196" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C196" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D196" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B197" s="67"/>
+      <c r="C197" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D197" s="67"/>
+      <c r="E197" s="11"/>
+    </row>
+    <row r="198" ht="87" spans="1:5">
+      <c r="A198" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B198" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C198" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D198" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B199" s="67"/>
+      <c r="C199" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D199" s="67"/>
+      <c r="E199" s="11"/>
+    </row>
+    <row r="200" ht="116" spans="1:5">
+      <c r="A200" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B200" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C200" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D200" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B201" s="67"/>
+      <c r="C201" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D201" s="67"/>
+      <c r="E201" s="11"/>
+    </row>
+    <row r="202" ht="87" spans="1:5">
+      <c r="A202" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B202" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C202" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D202" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B203" s="67"/>
+      <c r="C203" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D203" s="67"/>
+      <c r="E203" s="11"/>
+    </row>
+    <row r="204" ht="87" spans="1:5">
+      <c r="A204" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B204" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C204" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D204" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B205" s="67"/>
+      <c r="C205" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D205" s="67"/>
+      <c r="E205" s="11"/>
+    </row>
+    <row r="206" ht="130.5" spans="1:5">
+      <c r="A206" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B206" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D206" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B207" s="67"/>
+      <c r="C207" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D207" s="67"/>
+      <c r="E207" s="11"/>
+    </row>
+    <row r="208" ht="101.5" spans="1:5">
+      <c r="A208" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C208" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D208" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D209" s="67"/>
+      <c r="E209" s="11"/>
+    </row>
+    <row r="210" s="2" customFormat="1" spans="1:5">
+      <c r="A210" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B210" s="66"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="66"/>
+      <c r="E210" s="9"/>
+    </row>
+    <row r="211" s="2" customFormat="1" ht="58" spans="1:5">
+      <c r="A211" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B211" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C211" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D211" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" s="2" customFormat="1" spans="1:5">
+      <c r="A212" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B212" s="67"/>
+      <c r="C212" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D212" s="67"/>
+      <c r="E212" s="11"/>
+    </row>
+    <row r="213" s="2" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A213" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B213" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C213" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D213" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="214" s="2" customFormat="1" spans="1:5">
+      <c r="A214" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B214" s="67"/>
+      <c r="C214" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D214" s="67"/>
+      <c r="E214" s="11"/>
+    </row>
+    <row r="215" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A215" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B215" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C215" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D215" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" s="2" customFormat="1" spans="1:5">
+      <c r="A216" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B216" s="67"/>
+      <c r="C216" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D216" s="67"/>
+      <c r="E216" s="11"/>
+    </row>
+    <row r="217" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A217" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B217" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C217" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D217" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" s="2" customFormat="1" spans="1:5">
+      <c r="A218" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B218" s="67"/>
+      <c r="C218" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D218" s="67"/>
+      <c r="E218" s="11"/>
+    </row>
+    <row r="219" s="2" customFormat="1" ht="116" spans="1:5">
+      <c r="A219" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B219" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C219" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D219" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="220" s="2" customFormat="1" spans="1:5">
+      <c r="A220" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B220" s="67"/>
+      <c r="C220" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D220" s="67"/>
+      <c r="E220" s="11"/>
+    </row>
+    <row r="221" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A221" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B221" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C221" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D221" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="222" s="2" customFormat="1" spans="1:5">
+      <c r="A222" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B222" s="67"/>
+      <c r="C222" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D222" s="67"/>
+      <c r="E222" s="11"/>
+    </row>
+    <row r="223" s="2" customFormat="1" ht="87" spans="1:5">
+      <c r="A223" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B223" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C223" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D223" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="224" s="2" customFormat="1" spans="1:5">
+      <c r="A224" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B224" s="67"/>
+      <c r="C224" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D224" s="67"/>
+      <c r="E224" s="11"/>
+    </row>
+    <row r="225" s="2" customFormat="1" ht="106" customHeight="1" spans="1:5">
+      <c r="A225" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B225" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C225" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D225" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="226" s="2" customFormat="1" spans="1:5">
+      <c r="A226" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B226" s="67"/>
+      <c r="C226" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D226" s="67"/>
+      <c r="E226" s="11"/>
+    </row>
+    <row r="227" s="2" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A227" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B227" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C227" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D227" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="228" s="2" customFormat="1" spans="1:5">
+      <c r="A228" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B228" s="67"/>
+      <c r="C228" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D228" s="67"/>
+      <c r="E228" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/testdata/employeeManagementDta.xlsx
+++ b/src/testdata/employeeManagementDta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="350">
   <si>
     <t>Description</t>
   </si>
@@ -1336,6 +1336,372 @@
   </si>
   <si>
     <t>nguyễn thị</t>
+  </si>
+  <si>
+    <t>OtherID</t>
+  </si>
+  <si>
+    <t>Driver_License_Number</t>
+  </si>
+  <si>
+    <t>Check value in dropdown and order value in dropdown
+Ex: Display full value equal DB</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Check when the date field is in an incorrect format.
+1. Enter a date value in an incorrect format:
+2. Check with the following formats: MM-DD-YYYY
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>04-05-2025</t>
+  </si>
+  <si>
+    <t>Should be a valid date in yyyy-mm-dd format</t>
+  </si>
+  <si>
+    <t>Check when the date field is in an incorrect format.
+1. Enter a date value in an incorrect format:
+2. Check with the following formats: YYYY-DD-MM
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>2025-20-12</t>
+  </si>
+  <si>
+    <t>Check when the date field is in an incorrect format.
+1. Enter a date value in an incorrect format:
+2. Check with the following formats: abcdefgh
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>Check when the date field is in an incorrect format.
+1. Enter a date value in an incorrect format:
+2. Check with the following formats: DD; e.g., 25
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Check when the date field is in an incorrect format.
+1. Enter a date value in an incorrect format:
+2. Check with the following formats: DD-MM; e.g., 25-12.
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>23-04</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Invalid day DD (out of range [1,31]); e.g., 2009-04-32.
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>2009-04-32</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Invalid month MM (out of range [1,12]); e.g., 2009-04-12.
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>2009-14-12</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Check with the following boundary values: 1983-04-31
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>1983-04-31</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Check with the following boundary values: 1983-06-31
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>1983-06-31</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Check with the following boundary values: 1983-09-31
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>1983-09-31</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Check with the following boundary values: 1983-11-31
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>1983-11-31</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Check with the following boundary values: 1983-02-30
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>1983-02-29</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field:
+Check with the following boundary values: 1983-02-29
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field: YYYY &lt; 1000 or YYYY &gt; 9999: 0999-02-01
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>0999-02-01</t>
+  </si>
+  <si>
+    <t>Check when the date field is in the YYYY-MM-DD format but is invalid.
+1. Enter the following values into the date field: YYYY &lt; 1000 or YYYY &gt; 9999: 99999-02-01
+Expected result:Display the error message "Should be a valid date in yyyy-mm-dd format"</t>
+  </si>
+  <si>
+    <t>99999-02-01</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 31 in months (1, 3, 5, 7, 8, 10, 12)
+1.Enter 2025-01-31 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>Check DB 
+3. Click Save
+Ex. Save successful</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 31 in months (1, 3, 5, 7, 8, 10, 12)
+1.Enter 2025-03-31 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 31 in months (1, 3, 5, 7, 8, 10, 12)
+1.Enter 2025-05-31 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 31 in months (1, 3, 5, 7, 8, 10, 12)
+1.Enter 2025-07-31 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 31 in months (1, 3, 5, 7, 8, 10, 12)
+1.Enter 2025-08-31 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 31 in months (1, 3, 5, 7, 8, 10, 12)
+1.Enter 2025-10-31 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 31 in months (1, 3, 5, 7, 8, 10, 12)
+1.Enter 2025-12-31 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+1980-02-29
+1.Enter 1980-02-29 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>1980-02-29</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+1983-02-28
+1.Enter 1983-02-28 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>1983-02-28</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 30 in months (4, 6, 9, 11)
+1.Enter 2025-04-30 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 30 in months (4, 6, 9, 11)
+1.Enter 2025-06-30 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 30 in months (4, 6, 9, 11)
+1.Enter 2025-09-30 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+Day 30 in months (4, 6, 9, 11)
+1.Enter 2025-11-30 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+1983-10-10
+1.Enter 1983-10-10 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>1983-10-10</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+1000-02-01
+1.Enter 1000-02-01 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>1000-02-01</t>
+  </si>
+  <si>
+    <t>Check when the date field has a valid YYYY-MM-DD format.
+Check with the following values:
+9999-02-01
+1.Enter 9999-02-01 into the textbox.
+Expected: The entered value is displayed correctly.</t>
+  </si>
+  <si>
+    <t>9999-02-01</t>
+  </si>
+  <si>
+    <t>Check the functionality of the Calendar box.
+1. Click the Calendar icon next to the textbox.
+2. Select a date value from the Calendar box.
+Expected Result: The Calendar box closes after a date is selected.</t>
+  </si>
+  <si>
+    <t>Check the functionality of the Close button
+1.Click the Calendar icon next to the textbox.
+2. Click the Close button.
+Expected Result: The Calendar box closes immediately after the Close button is clicked.</t>
+  </si>
+  <si>
+    <t>Check the functionality of the Today button
+1. Click the Calendar icon next to the textbox.
+2. Click the Today button.
+Expected Result: The value in the Calendar is set to today’s date.</t>
+  </si>
+  <si>
+    <t>Check the functionality of the Clear button
+1. Click the Calendar icon next to the textbox.
+2. Select a date from the Calendar box.
+3. Click the Clear button.
+Expected Result: The value in the Calendar is cleared.</t>
+  </si>
+  <si>
+    <t>Check the focus in the Calendar box when the textbox does not contain data.
+1. Click the Calendar icon next to the textbox.
+2. Check the focused value in the Calendar box.
+Expected Result: The focus in the Calendar is on today’s date.</t>
+  </si>
+  <si>
+    <t>rgb(255, 123, 29)</t>
+  </si>
+  <si>
+    <t>Check the focus in the Calendar box when the textbox already contains data.
+Assume the date field already has a value (e.g., 2025-08-27):
+1. Click the Calendar icon next to the textbox.
+2. Check the focused value in the Calendar box.
+Expected Result: The focus in the Calendar is on the date that is already entered in the textbox.</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender Radio </t>
+  </si>
+  <si>
+    <t>Verify Check radio button
+Ex: Check radio button successfully</t>
+  </si>
+  <si>
+    <t>Verify Uncheck radio button
+Ex: Uncheck radio button successfully</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2270,6 +2636,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2808,10 +3195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -3996,7 +4383,7 @@
       <c r="J45" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K45" s="68" t="s">
+      <c r="K45" s="75" t="s">
         <v>154</v>
       </c>
       <c r="L45" s="11"/>
@@ -7088,6 +7475,1485 @@
       </c>
       <c r="D228" s="67"/>
       <c r="E228" s="11"/>
+    </row>
+    <row r="229" customFormat="1" spans="1:5">
+      <c r="A229" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B229" s="66"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="66"/>
+      <c r="E229" s="9"/>
+    </row>
+    <row r="230" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A230" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B230" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C230" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D230" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" customFormat="1" spans="1:5">
+      <c r="A231" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B231" s="67"/>
+      <c r="C231" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D231" s="67"/>
+      <c r="E231" s="11"/>
+    </row>
+    <row r="232" customFormat="1" ht="87" spans="1:5">
+      <c r="A232" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B232" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C232" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D232" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" customFormat="1" spans="1:5">
+      <c r="A233" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233" s="67"/>
+      <c r="C233" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D233" s="67"/>
+      <c r="E233" s="11"/>
+    </row>
+    <row r="234" customFormat="1" ht="87" spans="1:5">
+      <c r="A234" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B234" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C234" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D234" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="235" customFormat="1" spans="1:5">
+      <c r="A235" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B235" s="67"/>
+      <c r="C235" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D235" s="67"/>
+      <c r="E235" s="11"/>
+    </row>
+    <row r="236" customFormat="1" ht="116" spans="1:5">
+      <c r="A236" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B236" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C236" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D236" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="237" customFormat="1" spans="1:5">
+      <c r="A237" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B237" s="67"/>
+      <c r="C237" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D237" s="67"/>
+      <c r="E237" s="11"/>
+    </row>
+    <row r="238" customFormat="1" ht="87" spans="1:5">
+      <c r="A238" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B238" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C238" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D238" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="239" customFormat="1" spans="1:5">
+      <c r="A239" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" s="67"/>
+      <c r="C239" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D239" s="67"/>
+      <c r="E239" s="11"/>
+    </row>
+    <row r="240" customFormat="1" ht="87" spans="1:5">
+      <c r="A240" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B240" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C240" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D240" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" customFormat="1" spans="1:5">
+      <c r="A241" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B241" s="67"/>
+      <c r="C241" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D241" s="67"/>
+      <c r="E241" s="11"/>
+    </row>
+    <row r="242" customFormat="1" ht="130.5" spans="1:5">
+      <c r="A242" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B242" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C242" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D242" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="243" customFormat="1" spans="1:5">
+      <c r="A243" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B243" s="67"/>
+      <c r="C243" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D243" s="67"/>
+      <c r="E243" s="11"/>
+    </row>
+    <row r="244" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A244" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B244" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C244" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D244" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="245" customFormat="1" spans="1:5">
+      <c r="A245" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B245" s="67"/>
+      <c r="C245" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D245" s="67"/>
+      <c r="E245" s="11"/>
+    </row>
+    <row r="246" customFormat="1" spans="1:5">
+      <c r="A246" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B246" s="66"/>
+      <c r="C246" s="66"/>
+      <c r="D246" s="66"/>
+      <c r="E246" s="9"/>
+    </row>
+    <row r="247" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A247" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B247" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D247" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="248" customFormat="1" spans="1:5">
+      <c r="A248" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B248" s="67"/>
+      <c r="C248" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D248" s="67"/>
+      <c r="E248" s="11"/>
+    </row>
+    <row r="249" customFormat="1" ht="87" spans="1:5">
+      <c r="A249" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B249" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C249" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D249" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="250" customFormat="1" spans="1:5">
+      <c r="A250" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B250" s="67"/>
+      <c r="C250" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D250" s="67"/>
+      <c r="E250" s="11"/>
+    </row>
+    <row r="251" customFormat="1" ht="87" spans="1:5">
+      <c r="A251" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B251" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C251" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D251" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="252" customFormat="1" spans="1:5">
+      <c r="A252" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B252" s="67"/>
+      <c r="C252" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D252" s="67"/>
+      <c r="E252" s="11"/>
+    </row>
+    <row r="253" customFormat="1" ht="116" spans="1:5">
+      <c r="A253" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B253" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C253" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D253" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="254" customFormat="1" spans="1:5">
+      <c r="A254" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B254" s="67"/>
+      <c r="C254" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D254" s="67"/>
+      <c r="E254" s="11"/>
+    </row>
+    <row r="255" customFormat="1" ht="87" spans="1:5">
+      <c r="A255" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B255" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C255" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D255" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="256" customFormat="1" spans="1:5">
+      <c r="A256" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B256" s="67"/>
+      <c r="C256" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D256" s="67"/>
+      <c r="E256" s="11"/>
+    </row>
+    <row r="257" customFormat="1" ht="87" spans="1:5">
+      <c r="A257" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B257" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C257" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D257" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="258" customFormat="1" spans="1:5">
+      <c r="A258" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B258" s="67"/>
+      <c r="C258" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D258" s="67"/>
+      <c r="E258" s="11"/>
+    </row>
+    <row r="259" customFormat="1" ht="130.5" spans="1:5">
+      <c r="A259" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B259" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C259" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D259" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="260" customFormat="1" spans="1:5">
+      <c r="A260" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B260" s="67"/>
+      <c r="C260" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D260" s="67"/>
+      <c r="E260" s="11"/>
+    </row>
+    <row r="261" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A261" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B261" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C261" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="262" customFormat="1" spans="1:5">
+      <c r="A262" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" s="67"/>
+      <c r="C262" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D262" s="67"/>
+      <c r="E262" s="11"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B263" s="62"/>
+      <c r="C263" s="62"/>
+      <c r="D263" s="62"/>
+      <c r="E263" s="62"/>
+    </row>
+    <row r="264" ht="29" spans="1:6">
+      <c r="A264" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="B264" s="24"/>
+      <c r="C264" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F264" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="265" s="2" customFormat="1" spans="1:5">
+      <c r="A265" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B265" s="66"/>
+      <c r="C265" s="66"/>
+      <c r="D265" s="66"/>
+      <c r="E265" s="9"/>
+    </row>
+    <row r="266" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A266" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B266" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C266" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D266" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" spans="1:5">
+      <c r="A267" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="67"/>
+      <c r="C267" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D267" s="67"/>
+      <c r="E267" s="11"/>
+    </row>
+    <row r="268" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A268" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B268" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C268" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D268" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="269" s="2" customFormat="1" spans="1:5">
+      <c r="A269" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" s="67"/>
+      <c r="C269" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D269" s="67"/>
+      <c r="E269" s="11"/>
+    </row>
+    <row r="270" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A270" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B270" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C270" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D270" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="271" s="2" customFormat="1" spans="1:5">
+      <c r="A271" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B271" s="67"/>
+      <c r="C271" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D271" s="67"/>
+      <c r="E271" s="11"/>
+    </row>
+    <row r="272" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A272" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B272" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C272" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D272" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="273" s="2" customFormat="1" spans="1:5">
+      <c r="A273" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B273" s="67"/>
+      <c r="C273" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D273" s="67"/>
+      <c r="E273" s="11"/>
+    </row>
+    <row r="274" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A274" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B274" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C274" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D274" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="275" s="2" customFormat="1" spans="1:5">
+      <c r="A275" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B275" s="67"/>
+      <c r="C275" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D275" s="67"/>
+      <c r="E275" s="11"/>
+    </row>
+    <row r="276" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A276" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B276" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C276" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D276" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="277" s="2" customFormat="1" spans="1:5">
+      <c r="A277" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B277" s="67"/>
+      <c r="C277" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D277" s="67"/>
+      <c r="E277" s="11"/>
+    </row>
+    <row r="278" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A278" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B278" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C278" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D278" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="1" spans="1:5">
+      <c r="A279" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B279" s="67"/>
+      <c r="C279" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D279" s="67"/>
+      <c r="E279" s="11"/>
+    </row>
+    <row r="280" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A280" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B280" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C280" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D280" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="281" s="2" customFormat="1" spans="1:5">
+      <c r="A281" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B281" s="67"/>
+      <c r="C281" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D281" s="67"/>
+      <c r="E281" s="11"/>
+    </row>
+    <row r="282" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A282" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B282" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="C282" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D282" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="283" s="2" customFormat="1" spans="1:5">
+      <c r="A283" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B283" s="67"/>
+      <c r="C283" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D283" s="67"/>
+      <c r="E283" s="11"/>
+    </row>
+    <row r="284" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A284" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B284" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C284" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D284" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="285" s="2" customFormat="1" spans="1:5">
+      <c r="A285" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B285" s="67"/>
+      <c r="C285" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D285" s="67"/>
+      <c r="E285" s="11"/>
+    </row>
+    <row r="286" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A286" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B286" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C286" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D286" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" spans="1:5">
+      <c r="A287" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B287" s="67"/>
+      <c r="C287" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D287" s="67"/>
+      <c r="E287" s="11"/>
+    </row>
+    <row r="288" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A288" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B288" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C288" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D288" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="289" s="2" customFormat="1" spans="1:5">
+      <c r="A289" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B289" s="67"/>
+      <c r="C289" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D289" s="67"/>
+      <c r="E289" s="11"/>
+    </row>
+    <row r="290" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A290" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B290" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C290" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D290" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="291" s="2" customFormat="1" spans="1:5">
+      <c r="A291" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B291" s="67"/>
+      <c r="C291" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D291" s="67"/>
+      <c r="E291" s="11"/>
+    </row>
+    <row r="292" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A292" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B292" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C292" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D292" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="293" s="2" customFormat="1" spans="1:5">
+      <c r="A293" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B293" s="67"/>
+      <c r="C293" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D293" s="67"/>
+      <c r="E293" s="11"/>
+    </row>
+    <row r="294" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A294" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B294" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="C294" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D294" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" spans="1:5">
+      <c r="A295" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B295" s="67"/>
+      <c r="C295" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D295" s="67"/>
+      <c r="E295" s="11"/>
+    </row>
+    <row r="296" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A296" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B296" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="C296" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D296" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="297" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A297" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B297" s="67"/>
+      <c r="C297" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D297" s="67"/>
+      <c r="E297" s="11"/>
+    </row>
+    <row r="298" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A298" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B298" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C298" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D298" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A299" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B299" s="67"/>
+      <c r="C299" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D299" s="67"/>
+      <c r="E299" s="11"/>
+    </row>
+    <row r="300" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A300" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B300" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C300" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D300" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A301" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" s="67"/>
+      <c r="C301" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D301" s="67"/>
+      <c r="E301" s="11"/>
+    </row>
+    <row r="302" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A302" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B302" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="C302" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D302" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A303" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B303" s="67"/>
+      <c r="C303" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D303" s="67"/>
+      <c r="E303" s="11"/>
+    </row>
+    <row r="304" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A304" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B304" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C304" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D304" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A305" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305" s="67"/>
+      <c r="C305" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D305" s="67"/>
+      <c r="E305" s="11"/>
+    </row>
+    <row r="306" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A306" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B306" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="C306" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D306" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="307" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A307" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" s="67"/>
+      <c r="C307" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D307" s="67"/>
+      <c r="E307" s="11"/>
+    </row>
+    <row r="308" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A308" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B308" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="C308" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D308" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="309" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A309" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" s="67"/>
+      <c r="C309" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D309" s="67"/>
+      <c r="E309" s="11"/>
+    </row>
+    <row r="310" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A310" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B310" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C310" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D310" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="311" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A311" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B311" s="67"/>
+      <c r="C311" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D311" s="67"/>
+      <c r="E311" s="11"/>
+    </row>
+    <row r="312" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A312" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B312" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="C312" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D312" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A313" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B313" s="67"/>
+      <c r="C313" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D313" s="67"/>
+      <c r="E313" s="11"/>
+    </row>
+    <row r="314" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A314" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B314" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C314" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D314" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="E314" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A315" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B315" s="67"/>
+      <c r="C315" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D315" s="67"/>
+      <c r="E315" s="11"/>
+    </row>
+    <row r="316" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A316" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B316" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C316" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D316" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A317" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B317" s="67"/>
+      <c r="C317" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D317" s="67"/>
+      <c r="E317" s="11"/>
+    </row>
+    <row r="318" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A318" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B318" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C318" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D318" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A319" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B319" s="67"/>
+      <c r="C319" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D319" s="67"/>
+      <c r="E319" s="11"/>
+    </row>
+    <row r="320" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A320" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B320" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C320" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D320" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A321" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B321" s="67"/>
+      <c r="C321" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D321" s="67"/>
+      <c r="E321" s="11"/>
+    </row>
+    <row r="322" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A322" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B322" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="C322" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D322" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="E322" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A323" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B323" s="67"/>
+      <c r="C323" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D323" s="67"/>
+      <c r="E323" s="11"/>
+    </row>
+    <row r="324" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A324" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B324" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="C324" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D324" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="325" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A325" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B325" s="67"/>
+      <c r="C325" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D325" s="67"/>
+      <c r="E325" s="11"/>
+    </row>
+    <row r="326" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A326" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B326" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="C326" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D326" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="E326" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="327" s="2" customFormat="1" ht="43.5" spans="1:5">
+      <c r="A327" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B327" s="67"/>
+      <c r="C327" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D327" s="67"/>
+      <c r="E327" s="11"/>
+    </row>
+    <row r="328" s="2" customFormat="1" ht="58" spans="1:5">
+      <c r="A328" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B328" s="11"/>
+      <c r="C328" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A329" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B329" s="11"/>
+      <c r="C329" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="1" ht="58" spans="1:5">
+      <c r="A330" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B330" s="68"/>
+      <c r="C330" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A331" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B331" s="68"/>
+      <c r="C331" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="332" s="2" customFormat="1" ht="72.5" spans="1:5">
+      <c r="A332" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B332" s="69"/>
+      <c r="C332" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D332" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" s="2" customFormat="1" ht="101.5" spans="1:5">
+      <c r="A333" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B333" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="C333" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="D333" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="B334" s="72"/>
+      <c r="C334" s="72"/>
+      <c r="D334" s="72"/>
+      <c r="E334" s="72"/>
+    </row>
+    <row r="335" ht="29" spans="1:5">
+      <c r="A335" s="73" t="s">
+        <v>348</v>
+      </c>
+      <c r="B335" s="74"/>
+      <c r="C335" s="74"/>
+      <c r="D335" s="74"/>
+      <c r="E335" s="74"/>
+    </row>
+    <row r="336" ht="29" spans="1:5">
+      <c r="A336" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B336" s="74"/>
+      <c r="C336" s="74"/>
+      <c r="D336" s="74"/>
+      <c r="E336" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/testdata/employeeManagementDta.xlsx
+++ b/src/testdata/employeeManagementDta.xlsx
@@ -3197,8 +3197,8 @@
   <sheetPr/>
   <dimension ref="A1:M336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="A340" sqref="A340"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
